--- a/team_specific_matrix/Bellarmine_A.xlsx
+++ b/team_specific_matrix/Bellarmine_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1538461538461539</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="C2">
-        <v>0.6410256410256411</v>
+        <v>0.628140703517588</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01282051282051282</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1346153846153846</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0576923076923077</v>
+        <v>0.05527638190954774</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009900990099009901</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0198019801980198</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7920792079207921</v>
+        <v>0.8015873015873016</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1782178217821782</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04458598726114649</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01273885350318471</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03184713375796178</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2484076433121019</v>
+        <v>0.2464454976303317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01273885350318471</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1656050955414013</v>
+        <v>0.1706161137440758</v>
       </c>
       <c r="R6">
-        <v>0.07006369426751592</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="S6">
-        <v>0.4140127388535032</v>
+        <v>0.3838862559241706</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05594405594405594</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02797202797202797</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E7">
-        <v>0.01398601398601399</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="F7">
-        <v>0.05594405594405594</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1398601398601399</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02097902097902098</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2097902097902098</v>
+        <v>0.2078651685393259</v>
       </c>
       <c r="R7">
-        <v>0.05594405594405594</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="S7">
-        <v>0.4195804195804196</v>
+        <v>0.4157303370786517</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06647398843930635</v>
+        <v>0.06108597285067873</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02023121387283237</v>
+        <v>0.02036199095022624</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05491329479768786</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1098265895953757</v>
+        <v>0.1063348416289593</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02601156069364162</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1907514450867052</v>
+        <v>0.1877828054298643</v>
       </c>
       <c r="R8">
-        <v>0.07803468208092486</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="S8">
-        <v>0.453757225433526</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08152173913043478</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005434782608695652</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07608695652173914</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08152173913043478</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01630434782608696</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.2521008403361344</v>
       </c>
       <c r="R9">
-        <v>0.1032608695652174</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="S9">
-        <v>0.3858695652173913</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08700440528634361</v>
+        <v>0.08541846419327007</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01431718061674009</v>
+        <v>0.01294219154443486</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008628127696289905</v>
       </c>
       <c r="F10">
-        <v>0.07599118942731277</v>
+        <v>0.07506471095772217</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0947136563876652</v>
+        <v>0.091458153580673</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01431718061674009</v>
+        <v>0.01553062985332183</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2026431718061674</v>
+        <v>0.2018981880931838</v>
       </c>
       <c r="R10">
-        <v>0.1090308370044053</v>
+        <v>0.1087144089732528</v>
       </c>
       <c r="S10">
-        <v>0.4019823788546256</v>
+        <v>0.4081104400345125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1722488038277512</v>
+        <v>0.1721611721611722</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06220095693779904</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="K11">
-        <v>0.2200956937799043</v>
+        <v>0.2234432234432235</v>
       </c>
       <c r="L11">
-        <v>0.5454545454545454</v>
+        <v>0.5347985347985348</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.003663003663003663</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7107438016528925</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1900826446280992</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="K12">
-        <v>0.03305785123966942</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="L12">
-        <v>0.04132231404958678</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02479338842975207</v>
+        <v>0.04487179487179487</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.78125</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.15625</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01257861635220126</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1320754716981132</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I15">
-        <v>0.1006289308176101</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J15">
-        <v>0.3459119496855346</v>
+        <v>0.3581395348837209</v>
       </c>
       <c r="K15">
-        <v>0.05031446540880503</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01257861635220126</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="N15">
-        <v>0.01257861635220126</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="O15">
-        <v>0.0440251572327044</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2893081761006289</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0170940170940171</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1965811965811966</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="I16">
-        <v>0.07692307692307693</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="J16">
-        <v>0.4188034188034188</v>
+        <v>0.3851351351351351</v>
       </c>
       <c r="K16">
-        <v>0.1367521367521368</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008547008547008548</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.008547008547008548</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1367521367521368</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0169971671388102</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1813031161473088</v>
+        <v>0.178173719376392</v>
       </c>
       <c r="I17">
-        <v>0.1246458923512748</v>
+        <v>0.1135857461024499</v>
       </c>
       <c r="J17">
-        <v>0.4135977337110481</v>
+        <v>0.3942093541202673</v>
       </c>
       <c r="K17">
-        <v>0.07932011331444759</v>
+        <v>0.08908685968819599</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0169971671388102</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="N17">
-        <v>0.0028328611898017</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="O17">
-        <v>0.056657223796034</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1076487252124646</v>
+        <v>0.111358574610245</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0124223602484472</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2049689440993789</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="I18">
-        <v>0.1366459627329193</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="J18">
-        <v>0.3975155279503105</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K18">
-        <v>0.04968944099378882</v>
+        <v>0.0625</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0124223602484472</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="N18">
-        <v>0.006211180124223602</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O18">
-        <v>0.07453416149068323</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1055900621118012</v>
+        <v>0.1009615384615385</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01334702258726899</v>
+        <v>0.01422924901185771</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2135523613963039</v>
+        <v>0.2150197628458498</v>
       </c>
       <c r="I19">
-        <v>0.09753593429158111</v>
+        <v>0.1003952569169961</v>
       </c>
       <c r="J19">
-        <v>0.3726899383983573</v>
+        <v>0.3683794466403162</v>
       </c>
       <c r="K19">
-        <v>0.09753593429158111</v>
+        <v>0.09723320158102766</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0215605749486653</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="N19">
-        <v>0.001026694045174538</v>
+        <v>0.0007905138339920949</v>
       </c>
       <c r="O19">
-        <v>0.06776180698151951</v>
+        <v>0.07114624505928854</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1149897330595483</v>
+        <v>0.1130434782608696</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bellarmine_A.xlsx
+++ b/team_specific_matrix/Bellarmine_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1658291457286432</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C2">
-        <v>0.628140703517588</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01005025125628141</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1407035175879397</v>
+        <v>0.1312217194570136</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05527638190954774</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01587301587301587</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02380952380952381</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8015873015873016</v>
+        <v>0.8125</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1587301587301587</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04265402843601896</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009478672985781991</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07109004739336493</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2464454976303317</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009478672985781991</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1706161137440758</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R6">
-        <v>0.06635071090047394</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S6">
-        <v>0.3838862559241706</v>
+        <v>0.3813559322033898</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05617977528089887</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02247191011235955</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="E7">
-        <v>0.01123595505617977</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="F7">
-        <v>0.06179775280898876</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1460674157303371</v>
+        <v>0.1462264150943396</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01685393258426966</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2078651685393259</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="R7">
-        <v>0.06179775280898876</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="S7">
-        <v>0.4157303370786517</v>
+        <v>0.4056603773584906</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06108597285067873</v>
+        <v>0.0625</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02036199095022624</v>
+        <v>0.02291666666666667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05429864253393665</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1063348416289593</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02262443438914027</v>
+        <v>0.025</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1877828054298643</v>
+        <v>0.1854166666666667</v>
       </c>
       <c r="R8">
-        <v>0.08597285067873303</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="S8">
-        <v>0.4615384615384616</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004201680672268907</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06302521008403361</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07142857142857142</v>
+        <v>0.07835820895522388</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01680672268907563</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2521008403361344</v>
+        <v>0.2574626865671642</v>
       </c>
       <c r="R9">
-        <v>0.09243697478991597</v>
+        <v>0.08582089552238806</v>
       </c>
       <c r="S9">
-        <v>0.4117647058823529</v>
+        <v>0.4029850746268657</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08541846419327007</v>
+        <v>0.08502340093603744</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01294219154443486</v>
+        <v>0.01638065522620905</v>
       </c>
       <c r="E10">
-        <v>0.0008628127696289905</v>
+        <v>0.0007800312012480499</v>
       </c>
       <c r="F10">
-        <v>0.07506471095772217</v>
+        <v>0.0748829953198128</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.091458153580673</v>
+        <v>0.08970358814352575</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01553062985332183</v>
+        <v>0.01482059282371295</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2018981880931838</v>
+        <v>0.2059282371294852</v>
       </c>
       <c r="R10">
-        <v>0.1087144089732528</v>
+        <v>0.1060842433697348</v>
       </c>
       <c r="S10">
-        <v>0.4081104400345125</v>
+        <v>0.406396255850234</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1721611721611722</v>
+        <v>0.1682847896440129</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06593406593406594</v>
+        <v>0.06148867313915857</v>
       </c>
       <c r="K11">
-        <v>0.2234432234432235</v>
+        <v>0.2200647249190938</v>
       </c>
       <c r="L11">
-        <v>0.5347985347985348</v>
+        <v>0.5469255663430421</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003663003663003663</v>
+        <v>0.003236245954692557</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6794871794871795</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1987179487179487</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="K12">
-        <v>0.03205128205128205</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L12">
-        <v>0.04487179487179487</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04487179487179487</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01395348837209302</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1395348837209302</v>
+        <v>0.1373390557939914</v>
       </c>
       <c r="I15">
-        <v>0.09302325581395349</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="J15">
-        <v>0.3581395348837209</v>
+        <v>0.3605150214592275</v>
       </c>
       <c r="K15">
-        <v>0.04186046511627907</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0186046511627907</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N15">
-        <v>0.009302325581395349</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="O15">
-        <v>0.04651162790697674</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2790697674418605</v>
+        <v>0.278969957081545</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01351351351351351</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1824324324324324</v>
+        <v>0.1941176470588235</v>
       </c>
       <c r="I16">
-        <v>0.1013513513513514</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="J16">
-        <v>0.3851351351351351</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="K16">
-        <v>0.1216216216216216</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01351351351351351</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02027027027027027</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1621621621621622</v>
+        <v>0.1588235294117647</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0244988864142539</v>
+        <v>0.02186878727634195</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.178173719376392</v>
+        <v>0.1789264413518887</v>
       </c>
       <c r="I17">
-        <v>0.1135857461024499</v>
+        <v>0.121272365805169</v>
       </c>
       <c r="J17">
-        <v>0.3942093541202673</v>
+        <v>0.3976143141153082</v>
       </c>
       <c r="K17">
-        <v>0.08908685968819599</v>
+        <v>0.09145129224652088</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0178173719376392</v>
+        <v>0.01590457256461232</v>
       </c>
       <c r="N17">
-        <v>0.0022271714922049</v>
+        <v>0.005964214711729622</v>
       </c>
       <c r="O17">
-        <v>0.06904231625835189</v>
+        <v>0.06163021868787277</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.111358574610245</v>
+        <v>0.1053677932405567</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01442307692307692</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1778846153846154</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="I18">
-        <v>0.1298076923076923</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="J18">
-        <v>0.4230769230769231</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01442307692307692</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N18">
-        <v>0.004807692307692308</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="O18">
-        <v>0.07211538461538461</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1009615384615385</v>
+        <v>0.1043478260869565</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01422924901185771</v>
+        <v>0.01653486700215672</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2150197628458498</v>
+        <v>0.2070452911574407</v>
       </c>
       <c r="I19">
-        <v>0.1003952569169961</v>
+        <v>0.1020848310567937</v>
       </c>
       <c r="J19">
-        <v>0.3683794466403162</v>
+        <v>0.3673616103522646</v>
       </c>
       <c r="K19">
-        <v>0.09723320158102766</v>
+        <v>0.09992810927390366</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01976284584980237</v>
+        <v>0.02300503235082674</v>
       </c>
       <c r="N19">
-        <v>0.0007905138339920949</v>
+        <v>0.0007189072609633358</v>
       </c>
       <c r="O19">
-        <v>0.07114624505928854</v>
+        <v>0.07189072609633357</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1130434782608696</v>
+        <v>0.111430625449317</v>
       </c>
     </row>
   </sheetData>
